--- a/examples/sources/data/unsolved/to_schedule/2019-01-30.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-30.xlsx
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
         <v>43495</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2">
         <v>43495</v>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="2">
         <v>43495</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="2">
         <v>43495</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
         <v>43495</v>
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" s="2">
         <v>43495</v>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" s="2">
         <v>43495</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="2">
         <v>43495</v>
